--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Tool_Number</t>
   </si>
@@ -56,6 +56,22 @@
   </si>
   <si>
     <t>user3@example.com</t>
+  </si>
+  <si>
+    <t>Vendor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VendorA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VendorB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VendorC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -63,13 +79,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -77,8 +93,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -90,7 +113,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -113,19 +136,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -133,7 +170,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -417,13 +454,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -436,8 +481,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -445,13 +493,16 @@
         <v>8</v>
       </c>
       <c r="C2" s="2">
-        <v>45850.88241433045</v>
+        <v>45851.245960055283</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
       </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -459,13 +510,16 @@
         <v>9</v>
       </c>
       <c r="C3" s="2">
-        <v>45860.88241433045</v>
+        <v>45861.245960055283</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -473,13 +527,16 @@
         <v>8</v>
       </c>
       <c r="C4" s="2">
-        <v>45845.88241433045</v>
+        <v>45846.245960055283</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -487,13 +544,18 @@
         <v>10</v>
       </c>
       <c r="C5" s="2">
-        <v>45870.88241433045</v>
+        <v>45871.245960055283</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
       </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>